--- a/data/pca/factorExposure/factorExposure_2014-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.013035656041859</v>
+        <v>0.01169998810084157</v>
       </c>
       <c r="C2">
-        <v>0.03419181798750771</v>
+        <v>-0.05292794041045457</v>
       </c>
       <c r="D2">
-        <v>0.1358040866469205</v>
+        <v>0.06422794314919777</v>
       </c>
       <c r="E2">
-        <v>-0.1097118486973189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1029935558751295</v>
+      </c>
+      <c r="F2">
+        <v>0.1480300991991703</v>
+      </c>
+      <c r="G2">
+        <v>-0.05129018529776781</v>
+      </c>
+      <c r="H2">
+        <v>-0.04540423468083243</v>
+      </c>
+      <c r="I2">
+        <v>0.042221543302774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04529525315433573</v>
+        <v>0.02183963095145661</v>
       </c>
       <c r="C4">
-        <v>0.118542787420503</v>
+        <v>-0.1425820101660069</v>
       </c>
       <c r="D4">
-        <v>0.09752060025431872</v>
+        <v>0.02596142901102901</v>
       </c>
       <c r="E4">
-        <v>-0.09336784394797953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.07878779432411526</v>
+      </c>
+      <c r="F4">
+        <v>0.1038044561252784</v>
+      </c>
+      <c r="G4">
+        <v>0.06064100857656103</v>
+      </c>
+      <c r="H4">
+        <v>0.02317891230352979</v>
+      </c>
+      <c r="I4">
+        <v>0.07516654801575216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0218706598468345</v>
+        <v>0.03064205657244999</v>
       </c>
       <c r="C6">
-        <v>0.04650602488816943</v>
+        <v>-0.05787156213615095</v>
       </c>
       <c r="D6">
-        <v>0.0835164939097051</v>
+        <v>0.03710206722063936</v>
       </c>
       <c r="E6">
-        <v>-0.04105609257955032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.08824350979746863</v>
+      </c>
+      <c r="F6">
+        <v>0.05153078381392383</v>
+      </c>
+      <c r="G6">
+        <v>-0.04049465084019167</v>
+      </c>
+      <c r="H6">
+        <v>0.04553434072436634</v>
+      </c>
+      <c r="I6">
+        <v>0.02188933238235273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008296531224839204</v>
+        <v>0.006879275075341479</v>
       </c>
       <c r="C7">
-        <v>0.03664385166351157</v>
+        <v>-0.05379478956485619</v>
       </c>
       <c r="D7">
-        <v>0.06664998160768047</v>
+        <v>0.03637277508738765</v>
       </c>
       <c r="E7">
-        <v>-0.02039455519620971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.07260083663673368</v>
+      </c>
+      <c r="F7">
+        <v>0.005185817570093939</v>
+      </c>
+      <c r="G7">
+        <v>0.02202328626370512</v>
+      </c>
+      <c r="H7">
+        <v>0.05170135805669405</v>
+      </c>
+      <c r="I7">
+        <v>0.07848426834724673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003084177646710668</v>
+        <v>-0.006717332237094338</v>
       </c>
       <c r="C8">
-        <v>0.05102760283553843</v>
+        <v>-0.05919077898781767</v>
       </c>
       <c r="D8">
-        <v>0.08280404835871448</v>
+        <v>0.01424748568024735</v>
       </c>
       <c r="E8">
-        <v>-0.05974192772835209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0679268168628283</v>
+      </c>
+      <c r="F8">
+        <v>0.0815076284992373</v>
+      </c>
+      <c r="G8">
+        <v>0.03038766741920159</v>
+      </c>
+      <c r="H8">
+        <v>-0.04752977028187063</v>
+      </c>
+      <c r="I8">
+        <v>0.02913689675360935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0273440780572666</v>
+        <v>0.0131227044149191</v>
       </c>
       <c r="C9">
-        <v>0.09638476047845572</v>
+        <v>-0.1132585094260598</v>
       </c>
       <c r="D9">
-        <v>0.08405444512643354</v>
+        <v>0.02518126598752082</v>
       </c>
       <c r="E9">
-        <v>-0.06506799709374463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.06688430495036472</v>
+      </c>
+      <c r="F9">
+        <v>0.06618765946771735</v>
+      </c>
+      <c r="G9">
+        <v>0.0105618757146538</v>
+      </c>
+      <c r="H9">
+        <v>0.04244551121166448</v>
+      </c>
+      <c r="I9">
+        <v>0.07947895672648281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2217249294891555</v>
+        <v>0.242060416481044</v>
       </c>
       <c r="C10">
-        <v>-0.1135426201515297</v>
+        <v>0.08527619935123557</v>
       </c>
       <c r="D10">
-        <v>-0.04628996432474228</v>
+        <v>-0.01756706699028392</v>
       </c>
       <c r="E10">
-        <v>-0.03348212816558128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02477696492071325</v>
+      </c>
+      <c r="F10">
+        <v>0.01726082731986274</v>
+      </c>
+      <c r="G10">
+        <v>0.006358730186464895</v>
+      </c>
+      <c r="H10">
+        <v>0.02956724156610303</v>
+      </c>
+      <c r="I10">
+        <v>0.0255227948189461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01009694974149731</v>
+        <v>0.01242096050151186</v>
       </c>
       <c r="C11">
-        <v>0.04192847555599553</v>
+        <v>-0.06606178470930721</v>
       </c>
       <c r="D11">
-        <v>0.04671345785811103</v>
+        <v>0.01389460668493331</v>
       </c>
       <c r="E11">
-        <v>-0.01011789334137637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.05437485995808915</v>
+      </c>
+      <c r="F11">
+        <v>0.002276703171663513</v>
+      </c>
+      <c r="G11">
+        <v>0.0147025204961246</v>
+      </c>
+      <c r="H11">
+        <v>0.03233296238715702</v>
+      </c>
+      <c r="I11">
+        <v>0.03710315614814541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01530222389005826</v>
+        <v>0.01505535396899758</v>
       </c>
       <c r="C12">
-        <v>0.04474020119048702</v>
+        <v>-0.05625385495940964</v>
       </c>
       <c r="D12">
-        <v>0.04834793713849978</v>
+        <v>0.01860686579621114</v>
       </c>
       <c r="E12">
-        <v>0.00106618300866828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04222640305344252</v>
+      </c>
+      <c r="F12">
+        <v>-0.007888457395350993</v>
+      </c>
+      <c r="G12">
+        <v>-0.0142400141328211</v>
+      </c>
+      <c r="H12">
+        <v>0.02823552462291215</v>
+      </c>
+      <c r="I12">
+        <v>0.04153228504014361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01613875062523931</v>
+        <v>0.006379071986220867</v>
       </c>
       <c r="C13">
-        <v>0.05679301387712519</v>
+        <v>-0.09208870190463925</v>
       </c>
       <c r="D13">
-        <v>0.1283652028858557</v>
+        <v>0.07862073113650241</v>
       </c>
       <c r="E13">
-        <v>-0.0326107567607765</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1219252172003354</v>
+      </c>
+      <c r="F13">
+        <v>0.05396316981379815</v>
+      </c>
+      <c r="G13">
+        <v>-0.09849257489059735</v>
+      </c>
+      <c r="H13">
+        <v>0.05548138534452737</v>
+      </c>
+      <c r="I13">
+        <v>0.09750551437062491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004070281786657491</v>
+        <v>0.007049308565187242</v>
       </c>
       <c r="C14">
-        <v>0.02086809172157094</v>
+        <v>-0.04857664115494092</v>
       </c>
       <c r="D14">
-        <v>0.0580996691399471</v>
+        <v>0.01937423263540448</v>
       </c>
       <c r="E14">
-        <v>-0.01267938748326471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.1043049751474679</v>
+      </c>
+      <c r="F14">
+        <v>0.01747374535143783</v>
+      </c>
+      <c r="G14">
+        <v>-0.03203347851455191</v>
+      </c>
+      <c r="H14">
+        <v>0.07645039127202788</v>
+      </c>
+      <c r="I14">
+        <v>0.1404476963901411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002328537893490809</v>
+        <v>-0.003658844436224617</v>
       </c>
       <c r="C15">
-        <v>0.02751979147999926</v>
+        <v>-0.04871787141494165</v>
       </c>
       <c r="D15">
-        <v>0.07928440899390747</v>
+        <v>0.03281558072489271</v>
       </c>
       <c r="E15">
-        <v>-0.04067340979666322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.07774798607855812</v>
+      </c>
+      <c r="F15">
+        <v>0.01467280178821717</v>
+      </c>
+      <c r="G15">
+        <v>0.01077689019900134</v>
+      </c>
+      <c r="H15">
+        <v>0.01286330616522388</v>
+      </c>
+      <c r="I15">
+        <v>0.05632905820734071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.009631214183611006</v>
+        <v>0.01126588120679838</v>
       </c>
       <c r="C16">
-        <v>0.03825212736902793</v>
+        <v>-0.05612068959349378</v>
       </c>
       <c r="D16">
-        <v>0.03865927945489375</v>
+        <v>0.01693717182247602</v>
       </c>
       <c r="E16">
-        <v>-0.008438578727141812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04046569733726021</v>
+      </c>
+      <c r="F16">
+        <v>-0.00193429946555059</v>
+      </c>
+      <c r="G16">
+        <v>-0.0007291355236413364</v>
+      </c>
+      <c r="H16">
+        <v>0.03676028363980219</v>
+      </c>
+      <c r="I16">
+        <v>0.03515030442500602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.008530387187211219</v>
+        <v>0.003364999101549493</v>
       </c>
       <c r="C19">
-        <v>0.01643156712029173</v>
+        <v>-0.01269202724049959</v>
       </c>
       <c r="D19">
-        <v>0.02892088741826153</v>
+        <v>0.00332763910773235</v>
       </c>
       <c r="E19">
-        <v>0.01963604239977228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01114081143862325</v>
+      </c>
+      <c r="F19">
+        <v>-0.007291678993148386</v>
+      </c>
+      <c r="G19">
+        <v>-0.005140924078841379</v>
+      </c>
+      <c r="H19">
+        <v>-0.01849474750720212</v>
+      </c>
+      <c r="I19">
+        <v>0.02743459954164453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00144268732846385</v>
+        <v>0.003174957186088833</v>
       </c>
       <c r="C20">
-        <v>0.0410270542591535</v>
+        <v>-0.06410981117041921</v>
       </c>
       <c r="D20">
-        <v>0.06443516392036111</v>
+        <v>0.0345248261574302</v>
       </c>
       <c r="E20">
-        <v>-0.04983662571284262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.06737765302524538</v>
+      </c>
+      <c r="F20">
+        <v>0.006173854854631252</v>
+      </c>
+      <c r="G20">
+        <v>0.01896810744695519</v>
+      </c>
+      <c r="H20">
+        <v>0.06885680520592008</v>
+      </c>
+      <c r="I20">
+        <v>0.06177354237808309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01235575615834121</v>
+        <v>0.00843858074659244</v>
       </c>
       <c r="C21">
-        <v>0.06086419139558306</v>
+        <v>-0.06965268412198711</v>
       </c>
       <c r="D21">
-        <v>0.09465140706546121</v>
+        <v>0.03332946140461821</v>
       </c>
       <c r="E21">
-        <v>-0.07913012715733159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08287127716213814</v>
+      </c>
+      <c r="F21">
+        <v>0.07391913649706176</v>
+      </c>
+      <c r="G21">
+        <v>-0.0952245435082736</v>
+      </c>
+      <c r="H21">
+        <v>0.03009482110821941</v>
+      </c>
+      <c r="I21">
+        <v>0.1866565632967342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.000322030319622233</v>
+        <v>-0.0114709898808525</v>
       </c>
       <c r="C22">
-        <v>0.06152311899727891</v>
+        <v>-0.1019735800023107</v>
       </c>
       <c r="D22">
-        <v>0.2054783122303242</v>
+        <v>0.1456302450705663</v>
       </c>
       <c r="E22">
-        <v>-0.2157797753043997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.1870090443019328</v>
+      </c>
+      <c r="F22">
+        <v>0.2971375406216661</v>
+      </c>
+      <c r="G22">
+        <v>0.1230292424919034</v>
+      </c>
+      <c r="H22">
+        <v>-0.2494937504850526</v>
+      </c>
+      <c r="I22">
+        <v>-0.4107155509606129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004123744904608226</v>
+        <v>-0.008153174367320258</v>
       </c>
       <c r="C23">
-        <v>0.06288581431046968</v>
+        <v>-0.1050008073691617</v>
       </c>
       <c r="D23">
-        <v>0.2051404885534164</v>
+        <v>0.1481264833517306</v>
       </c>
       <c r="E23">
-        <v>-0.2147066550977686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.1843963353257367</v>
+      </c>
+      <c r="F23">
+        <v>0.2919072815955637</v>
+      </c>
+      <c r="G23">
+        <v>0.116836201825351</v>
+      </c>
+      <c r="H23">
+        <v>-0.2381349151955066</v>
+      </c>
+      <c r="I23">
+        <v>-0.3844449753621471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0125889288424997</v>
+        <v>0.01397697357577136</v>
       </c>
       <c r="C24">
-        <v>0.06310635647956984</v>
+        <v>-0.07370679232399023</v>
       </c>
       <c r="D24">
-        <v>0.05352928214017845</v>
+        <v>0.00959285337727752</v>
       </c>
       <c r="E24">
-        <v>0.006226735341241722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05456160069900521</v>
+      </c>
+      <c r="F24">
+        <v>-0.002216472366139122</v>
+      </c>
+      <c r="G24">
+        <v>0.006933682043196055</v>
+      </c>
+      <c r="H24">
+        <v>0.02980376424384826</v>
+      </c>
+      <c r="I24">
+        <v>0.05658272196359685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01687992018747207</v>
+        <v>0.018488204518906</v>
       </c>
       <c r="C25">
-        <v>0.05370732359037247</v>
+        <v>-0.06699385301922706</v>
       </c>
       <c r="D25">
-        <v>0.04291656118835671</v>
+        <v>0.01264665335981228</v>
       </c>
       <c r="E25">
-        <v>-0.007257366343787692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.04105905052265092</v>
+      </c>
+      <c r="F25">
+        <v>0.002183659546236423</v>
+      </c>
+      <c r="G25">
+        <v>0.01080468199761563</v>
+      </c>
+      <c r="H25">
+        <v>0.03362868505614418</v>
+      </c>
+      <c r="I25">
+        <v>0.03307489396425634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.005645287581842554</v>
+        <v>0.01719716729611198</v>
       </c>
       <c r="C26">
-        <v>0.03085496026391634</v>
+        <v>-0.04968396675371897</v>
       </c>
       <c r="D26">
-        <v>0.05392207133281261</v>
+        <v>-0.00615055940787398</v>
       </c>
       <c r="E26">
-        <v>-0.016206436999201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.08306586347692876</v>
+      </c>
+      <c r="F26">
+        <v>0.03094460580399166</v>
+      </c>
+      <c r="G26">
+        <v>-0.003662640605300835</v>
+      </c>
+      <c r="H26">
+        <v>0.0398077161134327</v>
+      </c>
+      <c r="I26">
+        <v>0.123900687526942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2982894803845618</v>
+        <v>0.3099280581820095</v>
       </c>
       <c r="C28">
-        <v>-0.1382286342376079</v>
+        <v>0.1060466390686723</v>
       </c>
       <c r="D28">
-        <v>-0.0483385790250614</v>
+        <v>-0.01060222291119937</v>
       </c>
       <c r="E28">
-        <v>-0.04109721647251063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04413790052309727</v>
+      </c>
+      <c r="F28">
+        <v>0.07233615191100291</v>
+      </c>
+      <c r="G28">
+        <v>0.03606140970099235</v>
+      </c>
+      <c r="H28">
+        <v>-0.02120754090617465</v>
+      </c>
+      <c r="I28">
+        <v>0.06587404038922376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.004751032807519624</v>
+        <v>0.006023120940257828</v>
       </c>
       <c r="C29">
-        <v>0.02841528185907667</v>
+        <v>-0.05712951851901208</v>
       </c>
       <c r="D29">
-        <v>0.06920992314294826</v>
+        <v>0.02957854158747382</v>
       </c>
       <c r="E29">
-        <v>-0.02922086389306528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1122815049353909</v>
+      </c>
+      <c r="F29">
+        <v>0.02209888572823716</v>
+      </c>
+      <c r="G29">
+        <v>-0.04724553093723855</v>
+      </c>
+      <c r="H29">
+        <v>0.1088791622827139</v>
+      </c>
+      <c r="I29">
+        <v>0.1779691940457399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02802754878401736</v>
+        <v>0.02141061902392026</v>
       </c>
       <c r="C30">
-        <v>0.09659634951134678</v>
+        <v>-0.1209048471171414</v>
       </c>
       <c r="D30">
-        <v>0.1404097613953356</v>
+        <v>0.04472259057722253</v>
       </c>
       <c r="E30">
-        <v>-0.06846228882719134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1209285447782164</v>
+      </c>
+      <c r="F30">
+        <v>0.05093468507440025</v>
+      </c>
+      <c r="G30">
+        <v>0.02152912020680844</v>
+      </c>
+      <c r="H30">
+        <v>0.004102207591942225</v>
+      </c>
+      <c r="I30">
+        <v>0.02438459417354483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01446812482593865</v>
+        <v>0.01088272827951597</v>
       </c>
       <c r="C31">
-        <v>0.08758843154336397</v>
+        <v>-0.09691132836100476</v>
       </c>
       <c r="D31">
-        <v>0.0304291347462045</v>
+        <v>-0.004714626860073722</v>
       </c>
       <c r="E31">
-        <v>0.02538184722467223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02821215944548055</v>
+      </c>
+      <c r="F31">
+        <v>0.004068607575043764</v>
+      </c>
+      <c r="G31">
+        <v>-0.001422974168289444</v>
+      </c>
+      <c r="H31">
+        <v>-0.01927674256154227</v>
+      </c>
+      <c r="I31">
+        <v>0.05867058187586176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0203143558964006</v>
+        <v>0.01782963573668257</v>
       </c>
       <c r="C32">
-        <v>0.0531193269909933</v>
+        <v>-0.06111219472839566</v>
       </c>
       <c r="D32">
-        <v>0.1020284310207832</v>
+        <v>0.03192516074159651</v>
       </c>
       <c r="E32">
-        <v>-0.1090384526095431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.06611653334620976</v>
+      </c>
+      <c r="F32">
+        <v>0.1169026761334252</v>
+      </c>
+      <c r="G32">
+        <v>-0.0376935823139713</v>
+      </c>
+      <c r="H32">
+        <v>0.02539451875484704</v>
+      </c>
+      <c r="I32">
+        <v>0.08447908785906318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.007412857657905833</v>
+        <v>0.009863511934180974</v>
       </c>
       <c r="C33">
-        <v>0.06201724856918717</v>
+        <v>-0.0903103680953575</v>
       </c>
       <c r="D33">
-        <v>0.08478542237947896</v>
+        <v>0.03890771570439135</v>
       </c>
       <c r="E33">
-        <v>-0.01724859563602639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.08634194458981127</v>
+      </c>
+      <c r="F33">
+        <v>0.01263743256155216</v>
+      </c>
+      <c r="G33">
+        <v>2.822654495179974e-05</v>
+      </c>
+      <c r="H33">
+        <v>0.03283373531787084</v>
+      </c>
+      <c r="I33">
+        <v>0.05867758293466491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.01139247247307767</v>
+        <v>0.01400455355006105</v>
       </c>
       <c r="C34">
-        <v>0.05180210950488141</v>
+        <v>-0.05635062617041207</v>
       </c>
       <c r="D34">
-        <v>0.0568727797528755</v>
+        <v>0.009545334766235852</v>
       </c>
       <c r="E34">
-        <v>0.02949792549802327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.04363784283079251</v>
+      </c>
+      <c r="F34">
+        <v>-0.02250395390127445</v>
+      </c>
+      <c r="G34">
+        <v>-0.007047817762669332</v>
+      </c>
+      <c r="H34">
+        <v>0.009145638935620077</v>
+      </c>
+      <c r="I34">
+        <v>0.02420784264182102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001222134487421309</v>
+        <v>0.005640239331676748</v>
       </c>
       <c r="C35">
-        <v>0.002485486482189045</v>
+        <v>-0.0243779844638431</v>
       </c>
       <c r="D35">
-        <v>0.009317376215819162</v>
+        <v>0.01292989669209913</v>
       </c>
       <c r="E35">
-        <v>-0.004633320732251102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04085835711241417</v>
+      </c>
+      <c r="F35">
+        <v>0.01689516981907205</v>
+      </c>
+      <c r="G35">
+        <v>-0.008402221511516468</v>
+      </c>
+      <c r="H35">
+        <v>0.0630536861580674</v>
+      </c>
+      <c r="I35">
+        <v>0.09864192701472041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006537314965247958</v>
+        <v>0.01027159022799216</v>
       </c>
       <c r="C36">
-        <v>0.02990878523531787</v>
+        <v>-0.04184981078380155</v>
       </c>
       <c r="D36">
-        <v>0.0434006014560982</v>
+        <v>0.002677395383722404</v>
       </c>
       <c r="E36">
-        <v>-0.02721064488730465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06604855309964354</v>
+      </c>
+      <c r="F36">
+        <v>0.03211651750570477</v>
+      </c>
+      <c r="G36">
+        <v>-0.001926952116704188</v>
+      </c>
+      <c r="H36">
+        <v>0.03358659191806291</v>
+      </c>
+      <c r="I36">
+        <v>0.07019356552347483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006550793562256689</v>
+        <v>0.006938599091042994</v>
       </c>
       <c r="C38">
-        <v>0.01429830297738698</v>
+        <v>-0.04207572723136198</v>
       </c>
       <c r="D38">
-        <v>0.06276289833508729</v>
+        <v>0.02917259213482696</v>
       </c>
       <c r="E38">
-        <v>-0.00541298059635144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.07783354708801332</v>
+      </c>
+      <c r="F38">
+        <v>0.0128082302171758</v>
+      </c>
+      <c r="G38">
+        <v>0.04824485195874589</v>
+      </c>
+      <c r="H38">
+        <v>-0.00491232200661448</v>
+      </c>
+      <c r="I38">
+        <v>0.07454940847201848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01471710800204584</v>
+        <v>0.01149903240656172</v>
       </c>
       <c r="C39">
-        <v>0.07599794674307099</v>
+        <v>-0.1051646627309335</v>
       </c>
       <c r="D39">
-        <v>0.1096868122038902</v>
+        <v>0.02471900326137187</v>
       </c>
       <c r="E39">
-        <v>-0.02155467635072507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.09778885539148671</v>
+      </c>
+      <c r="F39">
+        <v>-0.008283940965794181</v>
+      </c>
+      <c r="G39">
+        <v>-0.008071499749621383</v>
+      </c>
+      <c r="H39">
+        <v>0.03567483927142662</v>
+      </c>
+      <c r="I39">
+        <v>0.05103978706306224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.005709468433257568</v>
+        <v>0.01109445004305265</v>
       </c>
       <c r="C40">
-        <v>0.01731125764159413</v>
+        <v>-0.04689808380474966</v>
       </c>
       <c r="D40">
-        <v>0.09106928638989346</v>
+        <v>0.05407767715584322</v>
       </c>
       <c r="E40">
-        <v>0.001284685586724873</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1209769160364129</v>
+      </c>
+      <c r="F40">
+        <v>-0.00431261851403371</v>
+      </c>
+      <c r="G40">
+        <v>-0.02316036060573728</v>
+      </c>
+      <c r="H40">
+        <v>0.04279405841194776</v>
+      </c>
+      <c r="I40">
+        <v>0.01077603733834135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009694986136057961</v>
+        <v>0.0177098356994368</v>
       </c>
       <c r="C41">
-        <v>0.02387110721107561</v>
+        <v>-0.04383077085774432</v>
       </c>
       <c r="D41">
-        <v>0.01869177403409328</v>
+        <v>0.01083057697634327</v>
       </c>
       <c r="E41">
-        <v>0.02536915757912775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02093848944781141</v>
+      </c>
+      <c r="F41">
+        <v>-0.01441990811742321</v>
+      </c>
+      <c r="G41">
+        <v>0.006151438290778477</v>
+      </c>
+      <c r="H41">
+        <v>0.004136240867233681</v>
+      </c>
+      <c r="I41">
+        <v>0.03988808823492966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.002387372445659304</v>
+        <v>0.009065936350687389</v>
       </c>
       <c r="C43">
-        <v>0.01789520224953245</v>
+        <v>-0.03519795145023722</v>
       </c>
       <c r="D43">
-        <v>0.03553745890048958</v>
+        <v>0.008700867482140991</v>
       </c>
       <c r="E43">
-        <v>0.01123181140002946</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.04474852789044851</v>
+      </c>
+      <c r="F43">
+        <v>-0.005023000919202081</v>
+      </c>
+      <c r="G43">
+        <v>0.01486709253430215</v>
+      </c>
+      <c r="H43">
+        <v>0.01887306218794999</v>
+      </c>
+      <c r="I43">
+        <v>0.05262639618476022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02097832828675439</v>
+        <v>0.008267443689482745</v>
       </c>
       <c r="C44">
-        <v>0.05143234484194115</v>
+        <v>-0.07430457082179708</v>
       </c>
       <c r="D44">
-        <v>0.08430512556185046</v>
+        <v>0.02249701114715434</v>
       </c>
       <c r="E44">
-        <v>-0.07637877957165723</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1036835628403813</v>
+      </c>
+      <c r="F44">
+        <v>0.04330391186835562</v>
+      </c>
+      <c r="G44">
+        <v>0.01146671484014339</v>
+      </c>
+      <c r="H44">
+        <v>-0.001682817488303419</v>
+      </c>
+      <c r="I44">
+        <v>0.03213412666372662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001251275764580407</v>
+        <v>6.042753364661107e-05</v>
       </c>
       <c r="C46">
-        <v>0.03660788174847467</v>
+        <v>-0.05248687919551108</v>
       </c>
       <c r="D46">
-        <v>0.06825638189481326</v>
+        <v>0.0143761609080313</v>
       </c>
       <c r="E46">
-        <v>-0.02338642209448805</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08492653501829757</v>
+      </c>
+      <c r="F46">
+        <v>0.01452947041700038</v>
+      </c>
+      <c r="G46">
+        <v>-0.003828437649180031</v>
+      </c>
+      <c r="H46">
+        <v>0.06680347232159101</v>
+      </c>
+      <c r="I46">
+        <v>0.1114332768127418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04394063560904124</v>
+        <v>0.02914119990704852</v>
       </c>
       <c r="C47">
-        <v>0.1140417454238543</v>
+        <v>-0.112528943741177</v>
       </c>
       <c r="D47">
-        <v>0.03486407373654962</v>
+        <v>-0.01127805398084305</v>
       </c>
       <c r="E47">
-        <v>0.02226321442988983</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01429755251352127</v>
+      </c>
+      <c r="F47">
+        <v>-0.001381706430587764</v>
+      </c>
+      <c r="G47">
+        <v>0.01109983335174971</v>
+      </c>
+      <c r="H47">
+        <v>0.001347231695041878</v>
+      </c>
+      <c r="I47">
+        <v>0.08688037027987103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009456806493450086</v>
+        <v>0.01504416950015659</v>
       </c>
       <c r="C48">
-        <v>0.03238208812167957</v>
+        <v>-0.04748486888228105</v>
       </c>
       <c r="D48">
-        <v>0.04251363261586531</v>
+        <v>-0.00641854598578345</v>
       </c>
       <c r="E48">
-        <v>-0.01967251030896022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.07522000499876526</v>
+      </c>
+      <c r="F48">
+        <v>0.0417168003008617</v>
+      </c>
+      <c r="G48">
+        <v>0.004114378033173946</v>
+      </c>
+      <c r="H48">
+        <v>0.04643231147486727</v>
+      </c>
+      <c r="I48">
+        <v>0.1169883857220333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003433867634084143</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006342707706285138</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.007177314359779388</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.006022131724927303</v>
+      </c>
+      <c r="F49">
+        <v>-0.01392772554702743</v>
+      </c>
+      <c r="G49">
+        <v>-0.007470550481733341</v>
+      </c>
+      <c r="H49">
+        <v>0.01563097478978754</v>
+      </c>
+      <c r="I49">
+        <v>-0.006157886389044311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01437982797046694</v>
+        <v>0.01243077673037841</v>
       </c>
       <c r="C50">
-        <v>0.05444234554852463</v>
+        <v>-0.07199291645724983</v>
       </c>
       <c r="D50">
-        <v>0.04258390540419222</v>
+        <v>0.01384095299321506</v>
       </c>
       <c r="E50">
-        <v>0.004531280537723063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03454531228758807</v>
+      </c>
+      <c r="F50">
+        <v>0.01304040922303688</v>
+      </c>
+      <c r="G50">
+        <v>0.00998052680740644</v>
+      </c>
+      <c r="H50">
+        <v>-0.003434676979198653</v>
+      </c>
+      <c r="I50">
+        <v>0.05853912462019569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.003049764481897405</v>
+        <v>-0.004645808965729338</v>
       </c>
       <c r="C51">
-        <v>0.01882446236310407</v>
+        <v>-0.02900409828779669</v>
       </c>
       <c r="D51">
-        <v>0.06749335186476699</v>
+        <v>0.0167078762264194</v>
       </c>
       <c r="E51">
-        <v>-0.05906324632402326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05831696369143507</v>
+      </c>
+      <c r="F51">
+        <v>0.04723927712344025</v>
+      </c>
+      <c r="G51">
+        <v>-0.01034249943816085</v>
+      </c>
+      <c r="H51">
+        <v>0.0196353014542656</v>
+      </c>
+      <c r="I51">
+        <v>0.1063305482088503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09045785478332435</v>
+        <v>0.06505536238883018</v>
       </c>
       <c r="C53">
-        <v>0.1543788110735497</v>
+        <v>-0.1619800237141618</v>
       </c>
       <c r="D53">
-        <v>-0.003253203291681568</v>
+        <v>-0.04702578608093584</v>
       </c>
       <c r="E53">
-        <v>0.04392134427974883</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04522885032645713</v>
+      </c>
+      <c r="F53">
+        <v>-0.02837204124600868</v>
+      </c>
+      <c r="G53">
+        <v>0.01233218294280065</v>
+      </c>
+      <c r="H53">
+        <v>-0.04376499802168613</v>
+      </c>
+      <c r="I53">
+        <v>0.02240105947085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.006543704319455891</v>
+        <v>0.01337239208119062</v>
       </c>
       <c r="C54">
-        <v>0.02786777748811198</v>
+        <v>-0.0504183184383008</v>
       </c>
       <c r="D54">
-        <v>0.07699518262819326</v>
+        <v>0.04283396106115688</v>
       </c>
       <c r="E54">
-        <v>-0.02555411436212868</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05768388400534163</v>
+      </c>
+      <c r="F54">
+        <v>0.01208381497214178</v>
+      </c>
+      <c r="G54">
+        <v>0.007828326779103861</v>
+      </c>
+      <c r="H54">
+        <v>0.01787283705059748</v>
+      </c>
+      <c r="I54">
+        <v>0.09223527300577401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.06105729300766136</v>
+        <v>0.03968835639478135</v>
       </c>
       <c r="C55">
-        <v>0.1126495686506254</v>
+        <v>-0.1150464636603202</v>
       </c>
       <c r="D55">
-        <v>-0.00295210291899816</v>
+        <v>-0.05047854247824327</v>
       </c>
       <c r="E55">
-        <v>0.05368683207383027</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02263099020408328</v>
+      </c>
+      <c r="F55">
+        <v>-0.03364742204650811</v>
+      </c>
+      <c r="G55">
+        <v>0.0006300395328228083</v>
+      </c>
+      <c r="H55">
+        <v>-0.04348654318538714</v>
+      </c>
+      <c r="I55">
+        <v>0.02744626538607826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09453708589853622</v>
+        <v>0.06054134779926064</v>
       </c>
       <c r="C56">
-        <v>0.1689112499147859</v>
+        <v>-0.1837118230418446</v>
       </c>
       <c r="D56">
-        <v>0.02621559766366376</v>
+        <v>-0.05113030589144684</v>
       </c>
       <c r="E56">
-        <v>0.09730582536979575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03692646278081749</v>
+      </c>
+      <c r="F56">
+        <v>-0.06409951423507648</v>
+      </c>
+      <c r="G56">
+        <v>0.009458049390790682</v>
+      </c>
+      <c r="H56">
+        <v>-0.1221641178508016</v>
+      </c>
+      <c r="I56">
+        <v>0.02736062057213862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02087164115273519</v>
+        <v>0.01120787980336341</v>
       </c>
       <c r="C58">
-        <v>0.07552660899795603</v>
+        <v>-0.1191797827550559</v>
       </c>
       <c r="D58">
-        <v>0.2254454814463951</v>
+        <v>0.1262995823442594</v>
       </c>
       <c r="E58">
-        <v>-0.231231506877389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.1723007984028106</v>
+      </c>
+      <c r="F58">
+        <v>0.2632921312063676</v>
+      </c>
+      <c r="G58">
+        <v>0.06503075476553631</v>
+      </c>
+      <c r="H58">
+        <v>-0.1209690359159603</v>
+      </c>
+      <c r="I58">
+        <v>-0.04119348663371471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2383348366088282</v>
+        <v>0.2684793611280432</v>
       </c>
       <c r="C59">
-        <v>-0.08494556347534574</v>
+        <v>0.055765741164259</v>
       </c>
       <c r="D59">
-        <v>0.04700631132462055</v>
+        <v>0.02002503759246808</v>
       </c>
       <c r="E59">
-        <v>-0.05388550810996262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02768306947573246</v>
+      </c>
+      <c r="F59">
+        <v>0.03529011742800201</v>
+      </c>
+      <c r="G59">
+        <v>-0.01944007519225197</v>
+      </c>
+      <c r="H59">
+        <v>0.003877983899862599</v>
+      </c>
+      <c r="I59">
+        <v>-0.03124554266227848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.149942012431117</v>
+        <v>0.1531581538080337</v>
       </c>
       <c r="C60">
-        <v>0.119594759991759</v>
+        <v>-0.1526041552803068</v>
       </c>
       <c r="D60">
-        <v>0.08539270650531237</v>
+        <v>0.0235458129279645</v>
       </c>
       <c r="E60">
-        <v>0.1193483031223622</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.08281362739943109</v>
+      </c>
+      <c r="F60">
+        <v>-0.2271873163142758</v>
+      </c>
+      <c r="G60">
+        <v>-0.1053710532541</v>
+      </c>
+      <c r="H60">
+        <v>0.1558714007147565</v>
+      </c>
+      <c r="I60">
+        <v>-0.2935523678960086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02123460332264398</v>
+        <v>0.01861162161154603</v>
       </c>
       <c r="C61">
-        <v>0.06348234437648584</v>
+        <v>-0.09071375901108268</v>
       </c>
       <c r="D61">
-        <v>0.07266829370237209</v>
+        <v>0.01320979506459824</v>
       </c>
       <c r="E61">
-        <v>0.009683064478166465</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.07651621179476406</v>
+      </c>
+      <c r="F61">
+        <v>-0.0223068210495279</v>
+      </c>
+      <c r="G61">
+        <v>0.0041652408631015</v>
+      </c>
+      <c r="H61">
+        <v>0.02728879627846465</v>
+      </c>
+      <c r="I61">
+        <v>0.06203306261173948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0004681321503167818</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001105999784945435</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.0007908755138226926</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.000783022895278238</v>
+      </c>
+      <c r="F62">
+        <v>0.003051997300302405</v>
+      </c>
+      <c r="G62">
+        <v>-0.0001012674266306033</v>
+      </c>
+      <c r="H62">
+        <v>-0.0002917356005789304</v>
+      </c>
+      <c r="I62">
+        <v>0.003975668541637739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.002535494022537832</v>
+        <v>0.01757022878435619</v>
       </c>
       <c r="C63">
-        <v>0.04588935968327101</v>
+        <v>-0.06302051938454964</v>
       </c>
       <c r="D63">
-        <v>0.06155151691313795</v>
+        <v>0.003197633806878563</v>
       </c>
       <c r="E63">
-        <v>-0.005729827310354238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07586341520805034</v>
+      </c>
+      <c r="F63">
+        <v>0.002796060386832932</v>
+      </c>
+      <c r="G63">
+        <v>-0.003666256905112569</v>
+      </c>
+      <c r="H63">
+        <v>0.03250831927799441</v>
+      </c>
+      <c r="I63">
+        <v>0.07608876100383187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.02891877604314949</v>
+        <v>0.01722877562812967</v>
       </c>
       <c r="C64">
-        <v>0.1096254494678427</v>
+        <v>-0.1067536973801859</v>
       </c>
       <c r="D64">
-        <v>0.02276214744953013</v>
+        <v>-0.01008984638134883</v>
       </c>
       <c r="E64">
-        <v>0.01280794944996128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02726044174887317</v>
+      </c>
+      <c r="F64">
+        <v>0.01603346936977357</v>
+      </c>
+      <c r="G64">
+        <v>0.01725401417732764</v>
+      </c>
+      <c r="H64">
+        <v>0.0616939990223898</v>
+      </c>
+      <c r="I64">
+        <v>-0.01735782612055391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01988583820213503</v>
+        <v>0.02376326765827578</v>
       </c>
       <c r="C65">
-        <v>0.03925701532098862</v>
+        <v>-0.06622142184450336</v>
       </c>
       <c r="D65">
-        <v>0.08869046005766942</v>
+        <v>0.05452345533852843</v>
       </c>
       <c r="E65">
-        <v>-0.0139482158169634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.09825403996078644</v>
+      </c>
+      <c r="F65">
+        <v>-0.003661281703620723</v>
+      </c>
+      <c r="G65">
+        <v>0.003273423301375308</v>
+      </c>
+      <c r="H65">
+        <v>0.08483692821532883</v>
+      </c>
+      <c r="I65">
+        <v>-0.02877164901221366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02065742111559719</v>
+        <v>0.01315851047500222</v>
       </c>
       <c r="C66">
-        <v>0.09521663266247733</v>
+        <v>-0.1312343579389649</v>
       </c>
       <c r="D66">
-        <v>0.1449642041251289</v>
+        <v>0.05636104747339016</v>
       </c>
       <c r="E66">
-        <v>-0.03586417654362902</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.1083080448209139</v>
+      </c>
+      <c r="F66">
+        <v>0.004507995823061138</v>
+      </c>
+      <c r="G66">
+        <v>0.001808395565336906</v>
+      </c>
+      <c r="H66">
+        <v>0.009891646277580718</v>
+      </c>
+      <c r="I66">
+        <v>0.05110599057816864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0183217949968698</v>
+        <v>0.01791379995666803</v>
       </c>
       <c r="C67">
-        <v>0.01647998690748942</v>
+        <v>-0.04080680654650248</v>
       </c>
       <c r="D67">
-        <v>0.02981639380660666</v>
+        <v>0.005855094444397513</v>
       </c>
       <c r="E67">
-        <v>0.03819971317888199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.06152003306550588</v>
+      </c>
+      <c r="F67">
+        <v>-0.02869293381099198</v>
+      </c>
+      <c r="G67">
+        <v>0.04055526948667078</v>
+      </c>
+      <c r="H67">
+        <v>0.007588199806448416</v>
+      </c>
+      <c r="I67">
+        <v>0.05572662773591555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2341927659520992</v>
+        <v>0.2778570621206388</v>
       </c>
       <c r="C68">
-        <v>-0.09746879301270205</v>
+        <v>0.0675153228145339</v>
       </c>
       <c r="D68">
-        <v>0.01632285536640854</v>
+        <v>0.03757740638221273</v>
       </c>
       <c r="E68">
-        <v>-0.06070925057284737</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01589560136643564</v>
+      </c>
+      <c r="F68">
+        <v>0.05712592899351906</v>
+      </c>
+      <c r="G68">
+        <v>0.01171830543228726</v>
+      </c>
+      <c r="H68">
+        <v>-0.03388851955805781</v>
+      </c>
+      <c r="I68">
+        <v>-0.02938054541377245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.04060499093188616</v>
+        <v>0.01741650385665928</v>
       </c>
       <c r="C69">
-        <v>0.1193841749208143</v>
+        <v>-0.1028769518496745</v>
       </c>
       <c r="D69">
-        <v>0.0453164778043388</v>
+        <v>-0.02725538015745543</v>
       </c>
       <c r="E69">
-        <v>0.04693293213230665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02354918515127465</v>
+      </c>
+      <c r="F69">
+        <v>-0.01936047126049639</v>
+      </c>
+      <c r="G69">
+        <v>0.007255626569099273</v>
+      </c>
+      <c r="H69">
+        <v>-0.0119830067875355</v>
+      </c>
+      <c r="I69">
+        <v>0.05027605666547955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2483806770370095</v>
+        <v>0.2669198598308202</v>
       </c>
       <c r="C71">
-        <v>-0.1176822651081881</v>
+        <v>0.0836422842515251</v>
       </c>
       <c r="D71">
-        <v>0.01720482363345432</v>
+        <v>0.01890348734207114</v>
       </c>
       <c r="E71">
-        <v>-0.03465200118507888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.01984821362609781</v>
+      </c>
+      <c r="F71">
+        <v>0.03004349269631739</v>
+      </c>
+      <c r="G71">
+        <v>0.02994113661684471</v>
+      </c>
+      <c r="H71">
+        <v>0.001359318530158984</v>
+      </c>
+      <c r="I71">
+        <v>0.06553629820832758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.08045856708644528</v>
+        <v>0.06417857264761731</v>
       </c>
       <c r="C72">
-        <v>0.1186718245240988</v>
+        <v>-0.1351439423280616</v>
       </c>
       <c r="D72">
-        <v>0.1002825378389757</v>
+        <v>0.01338334819411752</v>
       </c>
       <c r="E72">
-        <v>0.031451557649453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.05986878324201167</v>
+      </c>
+      <c r="F72">
+        <v>-0.04271525342085809</v>
+      </c>
+      <c r="G72">
+        <v>-0.008350736064683777</v>
+      </c>
+      <c r="H72">
+        <v>0.01476544904771933</v>
+      </c>
+      <c r="I72">
+        <v>-0.03387416469381428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1149502706578721</v>
+        <v>0.1448192323563046</v>
       </c>
       <c r="C73">
-        <v>0.09160844885232393</v>
+        <v>-0.1551163846253867</v>
       </c>
       <c r="D73">
-        <v>0.1155391289328786</v>
+        <v>0.03921580675049218</v>
       </c>
       <c r="E73">
-        <v>0.1225850247235587</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1644395840536602</v>
+      </c>
+      <c r="F73">
+        <v>-0.3239885904976509</v>
+      </c>
+      <c r="G73">
+        <v>-0.1173574183598876</v>
+      </c>
+      <c r="H73">
+        <v>0.2946550220239416</v>
+      </c>
+      <c r="I73">
+        <v>-0.2889833970843315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07396248152181155</v>
+        <v>0.05030309157473254</v>
       </c>
       <c r="C74">
-        <v>0.1366512770841974</v>
+        <v>-0.1359747400169946</v>
       </c>
       <c r="D74">
-        <v>-0.04611418766311281</v>
+        <v>-0.06476506966112272</v>
       </c>
       <c r="E74">
-        <v>0.05807431434791389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04371348085545405</v>
+      </c>
+      <c r="F74">
+        <v>-0.01966037106013065</v>
+      </c>
+      <c r="G74">
+        <v>0.01423601928548749</v>
+      </c>
+      <c r="H74">
+        <v>-0.0327420054913172</v>
+      </c>
+      <c r="I74">
+        <v>0.01944083786389687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1728135095024791</v>
+        <v>0.09747983587450976</v>
       </c>
       <c r="C75">
-        <v>0.225065814484417</v>
+        <v>-0.2338001474469301</v>
       </c>
       <c r="D75">
-        <v>-0.02021967669408605</v>
+        <v>-0.09999895724901442</v>
       </c>
       <c r="E75">
-        <v>0.2283560292475812</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1092986660531526</v>
+      </c>
+      <c r="F75">
+        <v>-0.1528556958973901</v>
+      </c>
+      <c r="G75">
+        <v>0.1106329396475234</v>
+      </c>
+      <c r="H75">
+        <v>-0.2293796283754386</v>
+      </c>
+      <c r="I75">
+        <v>0.04737688556545869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09547259934096758</v>
+        <v>0.05843846992585874</v>
       </c>
       <c r="C76">
-        <v>0.1641844096636964</v>
+        <v>-0.1728324676460289</v>
       </c>
       <c r="D76">
-        <v>0.01211179217598138</v>
+        <v>-0.06605547375344717</v>
       </c>
       <c r="E76">
-        <v>0.1427437590682141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02745704464268817</v>
+      </c>
+      <c r="F76">
+        <v>-0.09707742902773724</v>
+      </c>
+      <c r="G76">
+        <v>0.006858271476418435</v>
+      </c>
+      <c r="H76">
+        <v>-0.08373741588365977</v>
+      </c>
+      <c r="I76">
+        <v>0.05213599443934287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.04552774150029328</v>
+        <v>0.03264963116405521</v>
       </c>
       <c r="C77">
-        <v>0.08555845561586171</v>
+        <v>-0.156506208686163</v>
       </c>
       <c r="D77">
-        <v>0.2929539896924626</v>
+        <v>0.8388158055414873</v>
       </c>
       <c r="E77">
-        <v>-0.3146738019942487</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.4916732976789601</v>
+      </c>
+      <c r="F77">
+        <v>-0.06725469494116815</v>
+      </c>
+      <c r="G77">
+        <v>0.02664135670189277</v>
+      </c>
+      <c r="H77">
+        <v>0.06142074872614623</v>
+      </c>
+      <c r="I77">
+        <v>0.06141490075376491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03308284945725395</v>
+        <v>0.02781507276990422</v>
       </c>
       <c r="C78">
-        <v>0.09193417978156933</v>
+        <v>-0.1059187429951244</v>
       </c>
       <c r="D78">
-        <v>0.1316461823251633</v>
+        <v>-0.000905504862293184</v>
       </c>
       <c r="E78">
-        <v>-0.07002828048188969</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.1018417414115591</v>
+      </c>
+      <c r="F78">
+        <v>0.04929949875943841</v>
+      </c>
+      <c r="G78">
+        <v>-0.02417735283820531</v>
+      </c>
+      <c r="H78">
+        <v>-0.06971703827112798</v>
+      </c>
+      <c r="I78">
+        <v>0.1272706588301822</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09460019843807538</v>
+        <v>0.05750347082379421</v>
       </c>
       <c r="C79">
-        <v>0.41570715690345</v>
+        <v>-0.3024302450763615</v>
       </c>
       <c r="D79">
-        <v>-0.6217358191555135</v>
+        <v>-0.3028753083615329</v>
       </c>
       <c r="E79">
-        <v>-0.5885972018836366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.4516402765638214</v>
+      </c>
+      <c r="F79">
+        <v>0.5404396497680106</v>
+      </c>
+      <c r="G79">
+        <v>-0.04055704402677043</v>
+      </c>
+      <c r="H79">
+        <v>0.469348669833185</v>
+      </c>
+      <c r="I79">
+        <v>-0.1503662826281379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.0002192844983634195</v>
+        <v>0.008931780520809557</v>
       </c>
       <c r="C80">
-        <v>0.05611808974513174</v>
+        <v>-0.05578613300652471</v>
       </c>
       <c r="D80">
-        <v>0.04049838118102843</v>
+        <v>-0.004802907131007843</v>
       </c>
       <c r="E80">
-        <v>0.04090556563023465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06672966233959111</v>
+      </c>
+      <c r="F80">
+        <v>-0.02069840788197423</v>
+      </c>
+      <c r="G80">
+        <v>-0.06640825344694638</v>
+      </c>
+      <c r="H80">
+        <v>0.01712498574618523</v>
+      </c>
+      <c r="I80">
+        <v>-0.03223979827324619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.07361091647494733</v>
+        <v>0.03431142630163906</v>
       </c>
       <c r="C81">
-        <v>0.1515149649288765</v>
+        <v>-0.1500013845136383</v>
       </c>
       <c r="D81">
-        <v>-0.04593997037884846</v>
+        <v>-0.06287459092406349</v>
       </c>
       <c r="E81">
-        <v>0.09011219149534336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05817674813768283</v>
+      </c>
+      <c r="F81">
+        <v>-0.01199381230550364</v>
+      </c>
+      <c r="G81">
+        <v>0.02104652763608685</v>
+      </c>
+      <c r="H81">
+        <v>-0.06173437548354</v>
+      </c>
+      <c r="I81">
+        <v>0.06719375539142863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1381647422673729</v>
+        <v>0.0766352227900098</v>
       </c>
       <c r="C82">
-        <v>0.2175044239032788</v>
+        <v>-0.2003734248530307</v>
       </c>
       <c r="D82">
-        <v>-0.01942355065796252</v>
+        <v>-0.09661742739713454</v>
       </c>
       <c r="E82">
-        <v>0.172612467941568</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06859221413840434</v>
+      </c>
+      <c r="F82">
+        <v>-0.08791823327949357</v>
+      </c>
+      <c r="G82">
+        <v>0.004860456387824215</v>
+      </c>
+      <c r="H82">
+        <v>-0.1212751960243594</v>
+      </c>
+      <c r="I82">
+        <v>0.08512219437273068</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003429726174178043</v>
+        <v>0.002560621076237782</v>
       </c>
       <c r="C83">
-        <v>0.05881346460596414</v>
+        <v>-0.02306942968162594</v>
       </c>
       <c r="D83">
-        <v>0.05312581663009928</v>
+        <v>0.04064377296565348</v>
       </c>
       <c r="E83">
-        <v>-0.0394947726333101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0384539743874181</v>
+      </c>
+      <c r="F83">
+        <v>0.1118828475706499</v>
+      </c>
+      <c r="G83">
+        <v>-0.9171720398272049</v>
+      </c>
+      <c r="H83">
+        <v>-0.2475231287800679</v>
+      </c>
+      <c r="I83">
+        <v>-0.02304835920197481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001362420071152588</v>
+        <v>-0.003619994317077111</v>
       </c>
       <c r="C84">
-        <v>0.01416108233862359</v>
+        <v>-0.02944943229588666</v>
       </c>
       <c r="D84">
-        <v>0.04085725929485629</v>
+        <v>0.01111364251433359</v>
       </c>
       <c r="E84">
-        <v>-0.02998094599900972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.05431457234086474</v>
+      </c>
+      <c r="F84">
+        <v>0.06224337694641233</v>
+      </c>
+      <c r="G84">
+        <v>0.05279984764791059</v>
+      </c>
+      <c r="H84">
+        <v>-0.03587340526186965</v>
+      </c>
+      <c r="I84">
+        <v>0.06918733270925138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08560525786956961</v>
+        <v>0.04889787324929837</v>
       </c>
       <c r="C85">
-        <v>0.1859357833277744</v>
+        <v>-0.1757657381972589</v>
       </c>
       <c r="D85">
-        <v>-0.073428731255173</v>
+        <v>-0.1151879519873385</v>
       </c>
       <c r="E85">
-        <v>0.07769156220674116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09177277543901605</v>
+      </c>
+      <c r="F85">
+        <v>-0.02948811297812113</v>
+      </c>
+      <c r="G85">
+        <v>0.01442816319595092</v>
+      </c>
+      <c r="H85">
+        <v>-0.07594595939649562</v>
+      </c>
+      <c r="I85">
+        <v>0.02817589311097338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02693616911779657</v>
+        <v>0.01672404200621611</v>
       </c>
       <c r="C86">
-        <v>0.03002869457296864</v>
+        <v>-0.06016803347910386</v>
       </c>
       <c r="D86">
-        <v>0.09227312572658072</v>
+        <v>0.04798451545525237</v>
       </c>
       <c r="E86">
-        <v>-0.05366030338047724</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03988303683623119</v>
+      </c>
+      <c r="F86">
+        <v>0.07850079956628844</v>
+      </c>
+      <c r="G86">
+        <v>0.03822875863906073</v>
+      </c>
+      <c r="H86">
+        <v>-0.02254395699179627</v>
+      </c>
+      <c r="I86">
+        <v>0.06999306795056588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02771495914771767</v>
+        <v>0.0171120917230849</v>
       </c>
       <c r="C87">
-        <v>0.07065892176138394</v>
+        <v>-0.09359005351617314</v>
       </c>
       <c r="D87">
-        <v>0.1412119386089756</v>
+        <v>0.07155856167114422</v>
       </c>
       <c r="E87">
-        <v>-0.08937389008174519</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.09848976953958261</v>
+      </c>
+      <c r="F87">
+        <v>0.07285622541135664</v>
+      </c>
+      <c r="G87">
+        <v>0.01773008708400317</v>
+      </c>
+      <c r="H87">
+        <v>-0.04212593335547874</v>
+      </c>
+      <c r="I87">
+        <v>0.04404798755596582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03913153610967826</v>
+        <v>0.03769175399716833</v>
       </c>
       <c r="C88">
-        <v>0.07446870203009522</v>
+        <v>-0.08370283215180162</v>
       </c>
       <c r="D88">
-        <v>0.0004680578235790066</v>
+        <v>-0.009234203428909495</v>
       </c>
       <c r="E88">
-        <v>0.05927323704241674</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01620289294009928</v>
+      </c>
+      <c r="F88">
+        <v>-0.02593984972704779</v>
+      </c>
+      <c r="G88">
+        <v>0.003996758093430161</v>
+      </c>
+      <c r="H88">
+        <v>0.01315103098666177</v>
+      </c>
+      <c r="I88">
+        <v>0.01700242026828375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4185080904333918</v>
+        <v>0.4081928273993599</v>
       </c>
       <c r="C89">
-        <v>-0.2163702057627167</v>
+        <v>0.1506375393836529</v>
       </c>
       <c r="D89">
-        <v>-0.03550888307433969</v>
+        <v>0.004343784096861526</v>
       </c>
       <c r="E89">
-        <v>-0.04665789537971347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0131360053023517</v>
+      </c>
+      <c r="F89">
+        <v>0.08599165544059188</v>
+      </c>
+      <c r="G89">
+        <v>-0.07999344693629017</v>
+      </c>
+      <c r="H89">
+        <v>-0.08863893545055564</v>
+      </c>
+      <c r="I89">
+        <v>0.06631903882628988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2993737568238067</v>
+        <v>0.3184531028783615</v>
       </c>
       <c r="C90">
-        <v>-0.1532573593672119</v>
+        <v>0.1004379568596409</v>
       </c>
       <c r="D90">
-        <v>0.06282242854161832</v>
+        <v>0.03286515470010791</v>
       </c>
       <c r="E90">
-        <v>-0.05582246165667728</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0438989431216914</v>
+      </c>
+      <c r="F90">
+        <v>0.02133234687664971</v>
+      </c>
+      <c r="G90">
+        <v>0.0121410857449498</v>
+      </c>
+      <c r="H90">
+        <v>-0.02757663757623869</v>
+      </c>
+      <c r="I90">
+        <v>-0.006726202737211647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.103139944392592</v>
+        <v>0.06793947105556594</v>
       </c>
       <c r="C91">
-        <v>0.2105848077879615</v>
+        <v>-0.1820911305640673</v>
       </c>
       <c r="D91">
-        <v>-0.08070446450189804</v>
+        <v>-0.08044336314529352</v>
       </c>
       <c r="E91">
-        <v>0.0502932663473953</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1151946944945857</v>
+      </c>
+      <c r="F91">
+        <v>-0.009311929646651049</v>
+      </c>
+      <c r="G91">
+        <v>-0.02370085273933891</v>
+      </c>
+      <c r="H91">
+        <v>-0.04559505039593564</v>
+      </c>
+      <c r="I91">
+        <v>0.01593348038623586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3161542813776771</v>
+        <v>0.3422275212374208</v>
       </c>
       <c r="C92">
-        <v>-0.1706489105850026</v>
+        <v>0.131687444501036</v>
       </c>
       <c r="D92">
-        <v>-0.02341145142315389</v>
+        <v>0.03167598796801253</v>
       </c>
       <c r="E92">
-        <v>-0.09796609857531713</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01987939906438765</v>
+      </c>
+      <c r="F92">
+        <v>0.07938350426406232</v>
+      </c>
+      <c r="G92">
+        <v>0.0945864141112084</v>
+      </c>
+      <c r="H92">
+        <v>0.03842592024871795</v>
+      </c>
+      <c r="I92">
+        <v>0.01848053466994005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3104412935182381</v>
+        <v>0.3212555300518883</v>
       </c>
       <c r="C93">
-        <v>-0.1587287267866869</v>
+        <v>0.1215669809873419</v>
       </c>
       <c r="D93">
-        <v>-0.04740221683092907</v>
+        <v>-0.0217043049612732</v>
       </c>
       <c r="E93">
-        <v>-0.01961769791206673</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01916554582943848</v>
+      </c>
+      <c r="F93">
+        <v>0.0400833262833204</v>
+      </c>
+      <c r="G93">
+        <v>0.01384116295175305</v>
+      </c>
+      <c r="H93">
+        <v>0.00570080830024326</v>
+      </c>
+      <c r="I93">
+        <v>0.03653913401144175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1766871352828736</v>
+        <v>0.114131755572152</v>
       </c>
       <c r="C94">
-        <v>0.2565121364580573</v>
+        <v>-0.2552547545256794</v>
       </c>
       <c r="D94">
-        <v>-0.0728893083188606</v>
+        <v>-0.1559410475299084</v>
       </c>
       <c r="E94">
-        <v>0.3069751096206084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.2042978848808063</v>
+      </c>
+      <c r="F94">
+        <v>-0.1901726852405795</v>
+      </c>
+      <c r="G94">
+        <v>0.07767932998948138</v>
+      </c>
+      <c r="H94">
+        <v>-0.4300473519178376</v>
+      </c>
+      <c r="I94">
+        <v>-0.03818727822087591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.04042660772525746</v>
+        <v>0.03818415310724231</v>
       </c>
       <c r="C95">
-        <v>0.04129484148385969</v>
+        <v>-0.09126024100808665</v>
       </c>
       <c r="D95">
-        <v>0.06122308623774466</v>
+        <v>0.04796792273946454</v>
       </c>
       <c r="E95">
-        <v>0.06574858310139625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07507076621878804</v>
+      </c>
+      <c r="F95">
+        <v>-0.1052251690965481</v>
+      </c>
+      <c r="G95">
+        <v>0.03515339939380805</v>
+      </c>
+      <c r="H95">
+        <v>0.04663224476635281</v>
+      </c>
+      <c r="I95">
+        <v>0.08242425601865927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003869499601078647</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008133111093988584</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0183048308376497</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.00115200968410916</v>
+      </c>
+      <c r="F97">
+        <v>-0.002418387874228043</v>
+      </c>
+      <c r="G97">
+        <v>0.0198718212343042</v>
+      </c>
+      <c r="H97">
+        <v>0.006792096546284194</v>
+      </c>
+      <c r="I97">
+        <v>0.009405722889435447</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.105327372250529</v>
+        <v>0.1304198847441594</v>
       </c>
       <c r="C98">
-        <v>0.09288777634976988</v>
+        <v>-0.1404359222553332</v>
       </c>
       <c r="D98">
-        <v>0.115790618780228</v>
+        <v>0.0154904798132946</v>
       </c>
       <c r="E98">
-        <v>0.06628586135564045</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1400857989848941</v>
+      </c>
+      <c r="F98">
+        <v>-0.2507291157915961</v>
+      </c>
+      <c r="G98">
+        <v>-0.07789018242210119</v>
+      </c>
+      <c r="H98">
+        <v>0.2497276204758705</v>
+      </c>
+      <c r="I98">
+        <v>-0.3307289298970599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.005826293815473315</v>
+        <v>0.006149590489539681</v>
       </c>
       <c r="C101">
-        <v>0.0275529550191501</v>
+        <v>-0.05588234718772345</v>
       </c>
       <c r="D101">
-        <v>0.06883082707397492</v>
+        <v>0.02987536856917059</v>
       </c>
       <c r="E101">
-        <v>-0.03015406242671306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1109915320318455</v>
+      </c>
+      <c r="F101">
+        <v>0.02221227141004537</v>
+      </c>
+      <c r="G101">
+        <v>-0.04679847156125182</v>
+      </c>
+      <c r="H101">
+        <v>0.1077471854932595</v>
+      </c>
+      <c r="I101">
+        <v>0.1769592243140155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.06397314406454269</v>
+        <v>0.02419106864498973</v>
       </c>
       <c r="C102">
-        <v>0.1181446017718719</v>
+        <v>-0.08419990778573759</v>
       </c>
       <c r="D102">
-        <v>0.004587289845674753</v>
+        <v>-0.04047451582412523</v>
       </c>
       <c r="E102">
-        <v>0.08374863241968963</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04784651753005314</v>
+      </c>
+      <c r="F102">
+        <v>-0.03458049467774428</v>
+      </c>
+      <c r="G102">
+        <v>-0.01165446461778871</v>
+      </c>
+      <c r="H102">
+        <v>-0.06841731698260987</v>
+      </c>
+      <c r="I102">
+        <v>0.01691855723350307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
